--- a/src/main/resources/jxls/template/预算报表.xlsx
+++ b/src/main/resources/jxls/template/预算报表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23835" windowHeight="12645" tabRatio="785" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23835" windowHeight="12645" tabRatio="785"/>
   </bookViews>
   <sheets>
     <sheet name="逾期应收账款处置" sheetId="72" r:id="rId1"/>
@@ -5771,11 +5771,47 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -5787,10 +5823,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -5799,31 +5831,9 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -5844,55 +5854,45 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5912,28 +5912,16 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="22" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5946,30 +5934,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5993,6 +5957,42 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="22" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -6445,8 +6445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6462,25 +6462,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18" customHeight="1">
-      <c r="C1" s="139" t="s">
+      <c r="C1" s="143" t="s">
         <v>257</v>
       </c>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
-      <c r="O1" s="139"/>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="139"/>
-      <c r="S1" s="139"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143"/>
+      <c r="N1" s="143"/>
+      <c r="O1" s="143"/>
+      <c r="P1" s="143"/>
+      <c r="Q1" s="143"/>
+      <c r="R1" s="143"/>
+      <c r="S1" s="143"/>
     </row>
     <row r="2" spans="1:19" s="18" customFormat="1" ht="12">
       <c r="D2" s="89"/>
@@ -6524,47 +6524,47 @@
       </c>
     </row>
     <row r="4" spans="1:19" s="44" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A4" s="150" t="s">
+      <c r="A4" s="125" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="150" t="s">
+      <c r="B4" s="125" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="150" t="s">
+      <c r="C4" s="125" t="s">
         <v>164</v>
       </c>
-      <c r="D4" s="143" t="s">
+      <c r="D4" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="154" t="s">
+      <c r="E4" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="148" t="s">
+      <c r="F4" s="149" t="s">
         <v>258</v>
       </c>
-      <c r="G4" s="140" t="s">
+      <c r="G4" s="144" t="s">
         <v>259</v>
       </c>
-      <c r="H4" s="141"/>
-      <c r="I4" s="141"/>
-      <c r="J4" s="141"/>
-      <c r="K4" s="141"/>
-      <c r="L4" s="141"/>
-      <c r="M4" s="141"/>
-      <c r="N4" s="141"/>
-      <c r="O4" s="141"/>
-      <c r="P4" s="141"/>
-      <c r="Q4" s="141"/>
-      <c r="R4" s="141"/>
-      <c r="S4" s="142"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="145"/>
+      <c r="K4" s="145"/>
+      <c r="L4" s="145"/>
+      <c r="M4" s="145"/>
+      <c r="N4" s="145"/>
+      <c r="O4" s="145"/>
+      <c r="P4" s="145"/>
+      <c r="Q4" s="145"/>
+      <c r="R4" s="145"/>
+      <c r="S4" s="146"/>
     </row>
     <row r="5" spans="1:19" s="44" customFormat="1" ht="12">
-      <c r="A5" s="150"/>
-      <c r="B5" s="150"/>
-      <c r="C5" s="150"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="155"/>
-      <c r="F5" s="149"/>
+      <c r="A5" s="125"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="150"/>
       <c r="G5" s="28" t="s">
         <v>10</v>
       </c>
@@ -6609,13 +6609,13 @@
       <c r="A6" s="93" t="s">
         <v>260</v>
       </c>
-      <c r="B6" s="151" t="s">
+      <c r="B6" s="126" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="131" t="s">
         <v>165</v>
       </c>
-      <c r="D6" s="145" t="s">
+      <c r="D6" s="131" t="s">
         <v>261</v>
       </c>
       <c r="E6" s="88" t="s">
@@ -6668,9 +6668,9 @@
       <c r="A7" s="93" t="s">
         <v>260</v>
       </c>
-      <c r="B7" s="152"/>
-      <c r="C7" s="146"/>
-      <c r="D7" s="146"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
       <c r="E7" s="88" t="s">
         <v>167</v>
       </c>
@@ -6721,9 +6721,9 @@
       <c r="A8" s="93" t="s">
         <v>260</v>
       </c>
-      <c r="B8" s="152"/>
-      <c r="C8" s="146"/>
-      <c r="D8" s="146"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
       <c r="E8" s="88" t="s">
         <v>180</v>
       </c>
@@ -6774,9 +6774,9 @@
       <c r="A9" s="93" t="s">
         <v>260</v>
       </c>
-      <c r="B9" s="152"/>
-      <c r="C9" s="146"/>
-      <c r="D9" s="147"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="133"/>
       <c r="E9" s="88" t="s">
         <v>193</v>
       </c>
@@ -6827,9 +6827,9 @@
       <c r="A10" s="93" t="s">
         <v>260</v>
       </c>
-      <c r="B10" s="152"/>
-      <c r="C10" s="146"/>
-      <c r="D10" s="145" t="s">
+      <c r="B10" s="127"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="131" t="s">
         <v>262</v>
       </c>
       <c r="E10" s="88" t="s">
@@ -6882,9 +6882,9 @@
       <c r="A11" s="93" t="s">
         <v>260</v>
       </c>
-      <c r="B11" s="152"/>
-      <c r="C11" s="146"/>
-      <c r="D11" s="146"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="132"/>
       <c r="E11" s="88" t="s">
         <v>262</v>
       </c>
@@ -6935,9 +6935,9 @@
       <c r="A12" s="93" t="s">
         <v>260</v>
       </c>
-      <c r="B12" s="152"/>
-      <c r="C12" s="146"/>
-      <c r="D12" s="146"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="132"/>
       <c r="E12" s="88" t="s">
         <v>167</v>
       </c>
@@ -6988,9 +6988,9 @@
       <c r="A13" s="93" t="s">
         <v>260</v>
       </c>
-      <c r="B13" s="152"/>
-      <c r="C13" s="146"/>
-      <c r="D13" s="146"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="132"/>
       <c r="E13" s="88" t="s">
         <v>180</v>
       </c>
@@ -7041,9 +7041,9 @@
       <c r="A14" s="93" t="s">
         <v>260</v>
       </c>
-      <c r="B14" s="152"/>
-      <c r="C14" s="146"/>
-      <c r="D14" s="147"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="133"/>
       <c r="E14" s="88" t="s">
         <v>193</v>
       </c>
@@ -7094,12 +7094,12 @@
       <c r="A15" s="93" t="s">
         <v>260</v>
       </c>
-      <c r="B15" s="153"/>
-      <c r="C15" s="147"/>
-      <c r="D15" s="137" t="s">
+      <c r="B15" s="128"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="129" t="s">
         <v>265</v>
       </c>
-      <c r="E15" s="138"/>
+      <c r="E15" s="130"/>
       <c r="F15" s="102" t="s">
         <v>137</v>
       </c>
@@ -7147,14 +7147,14 @@
       <c r="A16" s="93" t="s">
         <v>260</v>
       </c>
-      <c r="B16" s="125" t="s">
+      <c r="B16" s="137" t="s">
         <v>254</v>
       </c>
-      <c r="C16" s="127"/>
-      <c r="D16" s="137" t="s">
+      <c r="C16" s="138"/>
+      <c r="D16" s="129" t="s">
         <v>266</v>
       </c>
-      <c r="E16" s="138"/>
+      <c r="E16" s="130"/>
       <c r="F16" s="104" t="s">
         <v>531</v>
       </c>
@@ -7202,12 +7202,12 @@
       <c r="A17" s="93" t="s">
         <v>260</v>
       </c>
-      <c r="B17" s="128"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="134" t="s">
+      <c r="B17" s="139"/>
+      <c r="C17" s="140"/>
+      <c r="D17" s="136" t="s">
         <v>267</v>
       </c>
-      <c r="E17" s="134"/>
+      <c r="E17" s="136"/>
       <c r="F17" s="104" t="s">
         <v>532</v>
       </c>
@@ -7255,12 +7255,12 @@
       <c r="A18" s="93" t="s">
         <v>260</v>
       </c>
-      <c r="B18" s="128"/>
-      <c r="C18" s="130"/>
-      <c r="D18" s="134" t="s">
+      <c r="B18" s="139"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="136" t="s">
         <v>268</v>
       </c>
-      <c r="E18" s="134"/>
+      <c r="E18" s="136"/>
       <c r="F18" s="104" t="s">
         <v>533</v>
       </c>
@@ -7308,12 +7308,12 @@
       <c r="A19" s="93" t="s">
         <v>260</v>
       </c>
-      <c r="B19" s="131"/>
-      <c r="C19" s="133"/>
-      <c r="D19" s="134" t="s">
+      <c r="B19" s="141"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="136" t="s">
         <v>163</v>
       </c>
-      <c r="E19" s="134"/>
+      <c r="E19" s="136"/>
       <c r="F19" s="104" t="s">
         <v>534</v>
       </c>
@@ -7361,13 +7361,13 @@
       <c r="A20" s="93" t="s">
         <v>269</v>
       </c>
-      <c r="B20" s="151" t="s">
+      <c r="B20" s="126" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="145" t="s">
+      <c r="C20" s="131" t="s">
         <v>165</v>
       </c>
-      <c r="D20" s="145" t="s">
+      <c r="D20" s="131" t="s">
         <v>261</v>
       </c>
       <c r="E20" s="88" t="s">
@@ -7420,9 +7420,9 @@
       <c r="A21" s="93" t="s">
         <v>269</v>
       </c>
-      <c r="B21" s="152"/>
-      <c r="C21" s="146"/>
-      <c r="D21" s="146"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="132"/>
       <c r="E21" s="88" t="s">
         <v>167</v>
       </c>
@@ -7473,9 +7473,9 @@
       <c r="A22" s="93" t="s">
         <v>269</v>
       </c>
-      <c r="B22" s="152"/>
-      <c r="C22" s="146"/>
-      <c r="D22" s="146"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="132"/>
       <c r="E22" s="88" t="s">
         <v>180</v>
       </c>
@@ -7526,9 +7526,9 @@
       <c r="A23" s="93" t="s">
         <v>269</v>
       </c>
-      <c r="B23" s="152"/>
-      <c r="C23" s="146"/>
-      <c r="D23" s="147"/>
+      <c r="B23" s="127"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="133"/>
       <c r="E23" s="88" t="s">
         <v>193</v>
       </c>
@@ -7579,9 +7579,9 @@
       <c r="A24" s="93" t="s">
         <v>269</v>
       </c>
-      <c r="B24" s="152"/>
-      <c r="C24" s="146"/>
-      <c r="D24" s="145" t="s">
+      <c r="B24" s="127"/>
+      <c r="C24" s="132"/>
+      <c r="D24" s="131" t="s">
         <v>262</v>
       </c>
       <c r="E24" s="88" t="s">
@@ -7634,9 +7634,9 @@
       <c r="A25" s="93" t="s">
         <v>269</v>
       </c>
-      <c r="B25" s="152"/>
-      <c r="C25" s="146"/>
-      <c r="D25" s="146"/>
+      <c r="B25" s="127"/>
+      <c r="C25" s="132"/>
+      <c r="D25" s="132"/>
       <c r="E25" s="88" t="s">
         <v>262</v>
       </c>
@@ -7687,9 +7687,9 @@
       <c r="A26" s="93" t="s">
         <v>269</v>
       </c>
-      <c r="B26" s="152"/>
-      <c r="C26" s="146"/>
-      <c r="D26" s="146"/>
+      <c r="B26" s="127"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="132"/>
       <c r="E26" s="88" t="s">
         <v>167</v>
       </c>
@@ -7740,9 +7740,9 @@
       <c r="A27" s="93" t="s">
         <v>269</v>
       </c>
-      <c r="B27" s="152"/>
-      <c r="C27" s="146"/>
-      <c r="D27" s="146"/>
+      <c r="B27" s="127"/>
+      <c r="C27" s="132"/>
+      <c r="D27" s="132"/>
       <c r="E27" s="88" t="s">
         <v>180</v>
       </c>
@@ -7793,9 +7793,9 @@
       <c r="A28" s="93" t="s">
         <v>269</v>
       </c>
-      <c r="B28" s="152"/>
-      <c r="C28" s="146"/>
-      <c r="D28" s="147"/>
+      <c r="B28" s="127"/>
+      <c r="C28" s="132"/>
+      <c r="D28" s="133"/>
       <c r="E28" s="88" t="s">
         <v>193</v>
       </c>
@@ -7846,12 +7846,12 @@
       <c r="A29" s="93" t="s">
         <v>269</v>
       </c>
-      <c r="B29" s="153"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="137" t="s">
+      <c r="B29" s="128"/>
+      <c r="C29" s="133"/>
+      <c r="D29" s="129" t="s">
         <v>265</v>
       </c>
-      <c r="E29" s="138"/>
+      <c r="E29" s="130"/>
       <c r="F29" s="102" t="s">
         <v>137</v>
       </c>
@@ -7899,14 +7899,14 @@
       <c r="A30" s="93" t="s">
         <v>269</v>
       </c>
-      <c r="B30" s="125" t="s">
+      <c r="B30" s="137" t="s">
         <v>256</v>
       </c>
-      <c r="C30" s="127"/>
-      <c r="D30" s="137" t="s">
+      <c r="C30" s="138"/>
+      <c r="D30" s="129" t="s">
         <v>270</v>
       </c>
-      <c r="E30" s="138"/>
+      <c r="E30" s="130"/>
       <c r="F30" s="104" t="s">
         <v>633</v>
       </c>
@@ -7954,12 +7954,12 @@
       <c r="A31" s="93" t="s">
         <v>269</v>
       </c>
-      <c r="B31" s="128"/>
-      <c r="C31" s="130"/>
-      <c r="D31" s="134" t="s">
+      <c r="B31" s="139"/>
+      <c r="C31" s="140"/>
+      <c r="D31" s="136" t="s">
         <v>267</v>
       </c>
-      <c r="E31" s="134"/>
+      <c r="E31" s="136"/>
       <c r="F31" s="104" t="s">
         <v>647</v>
       </c>
@@ -8007,12 +8007,12 @@
       <c r="A32" s="93" t="s">
         <v>269</v>
       </c>
-      <c r="B32" s="128"/>
-      <c r="C32" s="130"/>
-      <c r="D32" s="134" t="s">
+      <c r="B32" s="139"/>
+      <c r="C32" s="140"/>
+      <c r="D32" s="136" t="s">
         <v>268</v>
       </c>
-      <c r="E32" s="134"/>
+      <c r="E32" s="136"/>
       <c r="F32" s="104" t="s">
         <v>661</v>
       </c>
@@ -8060,12 +8060,12 @@
       <c r="A33" s="93" t="s">
         <v>269</v>
       </c>
-      <c r="B33" s="131"/>
-      <c r="C33" s="133"/>
-      <c r="D33" s="134" t="s">
+      <c r="B33" s="141"/>
+      <c r="C33" s="142"/>
+      <c r="D33" s="136" t="s">
         <v>163</v>
       </c>
-      <c r="E33" s="134"/>
+      <c r="E33" s="136"/>
       <c r="F33" s="104" t="s">
         <v>675</v>
       </c>
@@ -8110,15 +8110,15 @@
       </c>
     </row>
     <row r="34" spans="1:24" s="27" customFormat="1" ht="15" customHeight="1">
-      <c r="A34" s="125" t="s">
+      <c r="A34" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="126"/>
-      <c r="C34" s="127"/>
-      <c r="D34" s="135" t="s">
+      <c r="B34" s="151"/>
+      <c r="C34" s="138"/>
+      <c r="D34" s="154" t="s">
         <v>271</v>
       </c>
-      <c r="E34" s="136"/>
+      <c r="E34" s="155"/>
       <c r="F34" s="104" t="s">
         <v>583</v>
       </c>
@@ -8163,13 +8163,13 @@
       </c>
     </row>
     <row r="35" spans="1:24">
-      <c r="A35" s="128"/>
-      <c r="B35" s="129"/>
-      <c r="C35" s="130"/>
-      <c r="D35" s="134" t="s">
+      <c r="A35" s="139"/>
+      <c r="B35" s="152"/>
+      <c r="C35" s="140"/>
+      <c r="D35" s="136" t="s">
         <v>267</v>
       </c>
-      <c r="E35" s="134"/>
+      <c r="E35" s="136"/>
       <c r="F35" s="104" t="s">
         <v>584</v>
       </c>
@@ -8214,13 +8214,13 @@
       </c>
     </row>
     <row r="36" spans="1:24">
-      <c r="A36" s="128"/>
-      <c r="B36" s="129"/>
-      <c r="C36" s="130"/>
-      <c r="D36" s="134" t="s">
+      <c r="A36" s="139"/>
+      <c r="B36" s="152"/>
+      <c r="C36" s="140"/>
+      <c r="D36" s="136" t="s">
         <v>268</v>
       </c>
-      <c r="E36" s="134"/>
+      <c r="E36" s="136"/>
       <c r="F36" s="104" t="s">
         <v>585</v>
       </c>
@@ -8265,13 +8265,13 @@
       </c>
     </row>
     <row r="37" spans="1:24">
-      <c r="A37" s="131"/>
-      <c r="B37" s="132"/>
-      <c r="C37" s="133"/>
-      <c r="D37" s="134" t="s">
+      <c r="A37" s="141"/>
+      <c r="B37" s="153"/>
+      <c r="C37" s="142"/>
+      <c r="D37" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="E37" s="134"/>
+      <c r="E37" s="136"/>
       <c r="F37" s="104" t="s">
         <v>689</v>
       </c>
@@ -8543,6 +8543,23 @@
   </sheetData>
   <sheetProtection formatCells="0" formatRows="0" insertRows="0" autoFilter="0"/>
   <mergeCells count="33">
+    <mergeCell ref="A34:C37"/>
+    <mergeCell ref="B30:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="C1:S1"/>
+    <mergeCell ref="G4:S4"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="D10:D14"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B15"/>
@@ -8559,23 +8576,6 @@
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="B16:C19"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="C1:S1"/>
-    <mergeCell ref="G4:S4"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="D10:D14"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A34:C37"/>
-    <mergeCell ref="B30:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <hyperlinks>
@@ -8591,7 +8591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y48"/>
   <sheetViews>
-    <sheetView showFormulas="1" showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showFormulas="1" showGridLines="0" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -8609,29 +8609,29 @@
   <sheetData>
     <row r="1" spans="1:25" s="23" customFormat="1" ht="22.5">
       <c r="A1" s="22"/>
-      <c r="B1" s="156" t="s">
+      <c r="B1" s="159" t="s">
         <v>325</v>
       </c>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
-      <c r="I1" s="156"/>
-      <c r="J1" s="156"/>
-      <c r="K1" s="156"/>
-      <c r="L1" s="156"/>
-      <c r="M1" s="156"/>
-      <c r="N1" s="156"/>
-      <c r="O1" s="156"/>
-      <c r="P1" s="156"/>
-      <c r="Q1" s="156"/>
-      <c r="R1" s="156"/>
-      <c r="S1" s="156"/>
-      <c r="T1" s="156"/>
-      <c r="U1" s="156"/>
-      <c r="V1" s="156"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
+      <c r="J1" s="159"/>
+      <c r="K1" s="159"/>
+      <c r="L1" s="159"/>
+      <c r="M1" s="159"/>
+      <c r="N1" s="159"/>
+      <c r="O1" s="159"/>
+      <c r="P1" s="159"/>
+      <c r="Q1" s="159"/>
+      <c r="R1" s="159"/>
+      <c r="S1" s="159"/>
+      <c r="T1" s="159"/>
+      <c r="U1" s="159"/>
+      <c r="V1" s="159"/>
       <c r="X1" s="69"/>
     </row>
     <row r="2" spans="1:25" s="27" customFormat="1" ht="12">
@@ -8677,47 +8677,47 @@
       </c>
     </row>
     <row r="4" spans="1:25" s="73" customFormat="1" ht="12">
-      <c r="A4" s="150" t="s">
+      <c r="A4" s="125" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="150" t="s">
+      <c r="B4" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="143" t="s">
+      <c r="C4" s="147" t="s">
         <v>334</v>
       </c>
-      <c r="D4" s="154" t="s">
+      <c r="D4" s="134" t="s">
         <v>335</v>
       </c>
-      <c r="E4" s="148" t="s">
+      <c r="E4" s="149" t="s">
         <v>336</v>
       </c>
-      <c r="F4" s="157" t="s">
+      <c r="F4" s="160" t="s">
         <v>337</v>
       </c>
-      <c r="G4" s="157"/>
-      <c r="H4" s="157"/>
-      <c r="I4" s="157"/>
-      <c r="J4" s="157"/>
-      <c r="K4" s="157"/>
-      <c r="L4" s="157"/>
-      <c r="M4" s="157"/>
-      <c r="N4" s="157"/>
-      <c r="O4" s="157"/>
-      <c r="P4" s="157"/>
-      <c r="Q4" s="157"/>
-      <c r="R4" s="157"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="160"/>
+      <c r="J4" s="160"/>
+      <c r="K4" s="160"/>
+      <c r="L4" s="160"/>
+      <c r="M4" s="160"/>
+      <c r="N4" s="160"/>
+      <c r="O4" s="160"/>
+      <c r="P4" s="160"/>
+      <c r="Q4" s="160"/>
+      <c r="R4" s="160"/>
       <c r="S4" s="26"/>
       <c r="T4" s="26"/>
       <c r="U4" s="86"/>
       <c r="V4" s="26"/>
     </row>
     <row r="5" spans="1:25" s="73" customFormat="1" ht="12">
-      <c r="A5" s="150"/>
-      <c r="B5" s="150"/>
-      <c r="C5" s="144"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="149"/>
+      <c r="A5" s="125"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="150"/>
       <c r="F5" s="28" t="s">
         <v>10</v>
       </c>
@@ -10314,11 +10314,11 @@
       <c r="A46" s="83" t="s">
         <v>261</v>
       </c>
-      <c r="B46" s="159" t="s">
+      <c r="B46" s="156" t="s">
         <v>342</v>
       </c>
-      <c r="C46" s="160"/>
-      <c r="D46" s="160"/>
+      <c r="C46" s="157"/>
+      <c r="D46" s="157"/>
       <c r="E46" s="108" t="s">
         <v>310</v>
       </c>
@@ -10369,6 +10369,12 @@
     <row r="48" spans="1:22"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B1:V1"/>
+    <mergeCell ref="F4:R4"/>
+    <mergeCell ref="C9:R9"/>
+    <mergeCell ref="C14:R14"/>
+    <mergeCell ref="C19:R19"/>
+    <mergeCell ref="E4:E5"/>
     <mergeCell ref="B46:D46"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -10379,12 +10385,6 @@
     <mergeCell ref="C34:R34"/>
     <mergeCell ref="C39:R39"/>
     <mergeCell ref="C44:R44"/>
-    <mergeCell ref="B1:V1"/>
-    <mergeCell ref="F4:R4"/>
-    <mergeCell ref="C9:R9"/>
-    <mergeCell ref="C14:R14"/>
-    <mergeCell ref="C19:R19"/>
-    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <hyperlinks>
@@ -10522,21 +10522,21 @@
       <c r="E4" s="162"/>
       <c r="F4" s="162"/>
       <c r="G4" s="162"/>
-      <c r="H4" s="157" t="s">
+      <c r="H4" s="160" t="s">
         <v>360</v>
       </c>
-      <c r="I4" s="157"/>
-      <c r="J4" s="157"/>
-      <c r="K4" s="157"/>
-      <c r="L4" s="157"/>
-      <c r="M4" s="157"/>
-      <c r="N4" s="157"/>
-      <c r="O4" s="157"/>
-      <c r="P4" s="157"/>
-      <c r="Q4" s="157"/>
-      <c r="R4" s="157"/>
-      <c r="S4" s="157"/>
-      <c r="T4" s="157"/>
+      <c r="I4" s="160"/>
+      <c r="J4" s="160"/>
+      <c r="K4" s="160"/>
+      <c r="L4" s="160"/>
+      <c r="M4" s="160"/>
+      <c r="N4" s="160"/>
+      <c r="O4" s="160"/>
+      <c r="P4" s="160"/>
+      <c r="Q4" s="160"/>
+      <c r="R4" s="160"/>
+      <c r="S4" s="160"/>
+      <c r="T4" s="160"/>
       <c r="U4" s="163" t="s">
         <v>24</v>
       </c>
@@ -14114,7 +14114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG99"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
@@ -14124,41 +14124,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="12" customHeight="1">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="186" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166"/>
-      <c r="J1" s="166"/>
-      <c r="K1" s="166"/>
-      <c r="L1" s="166"/>
-      <c r="M1" s="166"/>
-      <c r="N1" s="166"/>
-      <c r="O1" s="166"/>
-      <c r="P1" s="166"/>
-      <c r="Q1" s="166"/>
-      <c r="R1" s="166"/>
-      <c r="S1" s="166"/>
-      <c r="T1" s="166"/>
-      <c r="U1" s="166"/>
-      <c r="V1" s="166"/>
-      <c r="W1" s="166"/>
-      <c r="X1" s="166"/>
-      <c r="Y1" s="166"/>
-      <c r="Z1" s="166"/>
-      <c r="AA1" s="166"/>
-      <c r="AB1" s="166"/>
-      <c r="AC1" s="166"/>
-      <c r="AD1" s="166"/>
-      <c r="AE1" s="166"/>
-      <c r="AF1" s="166"/>
-      <c r="AG1" s="166"/>
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="186"/>
+      <c r="I1" s="186"/>
+      <c r="J1" s="186"/>
+      <c r="K1" s="186"/>
+      <c r="L1" s="186"/>
+      <c r="M1" s="186"/>
+      <c r="N1" s="186"/>
+      <c r="O1" s="186"/>
+      <c r="P1" s="186"/>
+      <c r="Q1" s="186"/>
+      <c r="R1" s="186"/>
+      <c r="S1" s="186"/>
+      <c r="T1" s="186"/>
+      <c r="U1" s="186"/>
+      <c r="V1" s="186"/>
+      <c r="W1" s="186"/>
+      <c r="X1" s="186"/>
+      <c r="Y1" s="186"/>
+      <c r="Z1" s="186"/>
+      <c r="AA1" s="186"/>
+      <c r="AB1" s="186"/>
+      <c r="AC1" s="186"/>
+      <c r="AD1" s="186"/>
+      <c r="AE1" s="186"/>
+      <c r="AF1" s="186"/>
+      <c r="AG1" s="186"/>
     </row>
     <row r="2" spans="1:33" ht="12" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -14200,88 +14200,88 @@
       </c>
     </row>
     <row r="3" spans="1:33" ht="12" customHeight="1">
-      <c r="A3" s="184" t="s">
+      <c r="A3" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="185" t="s">
+      <c r="B3" s="176" t="s">
         <v>371</v>
       </c>
-      <c r="C3" s="184" t="s">
+      <c r="C3" s="175" t="s">
         <v>372</v>
       </c>
-      <c r="D3" s="184" t="s">
+      <c r="D3" s="175" t="s">
         <v>373</v>
       </c>
-      <c r="E3" s="184" t="s">
+      <c r="E3" s="175" t="s">
         <v>374</v>
       </c>
-      <c r="F3" s="184" t="s">
+      <c r="F3" s="175" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="168" t="s">
+      <c r="G3" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="167" t="s">
+      <c r="H3" s="178" t="s">
         <v>375</v>
       </c>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167" t="s">
+      <c r="I3" s="178"/>
+      <c r="J3" s="178" t="s">
         <v>376</v>
       </c>
-      <c r="K3" s="167"/>
-      <c r="L3" s="167" t="s">
+      <c r="K3" s="178"/>
+      <c r="L3" s="178" t="s">
         <v>377</v>
       </c>
-      <c r="M3" s="167"/>
-      <c r="N3" s="167" t="s">
+      <c r="M3" s="178"/>
+      <c r="N3" s="178" t="s">
         <v>378</v>
       </c>
-      <c r="O3" s="167"/>
-      <c r="P3" s="167" t="s">
+      <c r="O3" s="178"/>
+      <c r="P3" s="178" t="s">
         <v>379</v>
       </c>
-      <c r="Q3" s="167"/>
-      <c r="R3" s="167" t="s">
+      <c r="Q3" s="178"/>
+      <c r="R3" s="178" t="s">
         <v>380</v>
       </c>
-      <c r="S3" s="167"/>
-      <c r="T3" s="167" t="s">
+      <c r="S3" s="178"/>
+      <c r="T3" s="178" t="s">
         <v>381</v>
       </c>
-      <c r="U3" s="167"/>
-      <c r="V3" s="167" t="s">
+      <c r="U3" s="178"/>
+      <c r="V3" s="178" t="s">
         <v>382</v>
       </c>
-      <c r="W3" s="167"/>
-      <c r="X3" s="167" t="s">
+      <c r="W3" s="178"/>
+      <c r="X3" s="178" t="s">
         <v>383</v>
       </c>
-      <c r="Y3" s="167"/>
-      <c r="Z3" s="167" t="s">
+      <c r="Y3" s="178"/>
+      <c r="Z3" s="178" t="s">
         <v>384</v>
       </c>
-      <c r="AA3" s="167"/>
-      <c r="AB3" s="167" t="s">
+      <c r="AA3" s="178"/>
+      <c r="AB3" s="178" t="s">
         <v>385</v>
       </c>
-      <c r="AC3" s="167"/>
-      <c r="AD3" s="167" t="s">
+      <c r="AC3" s="178"/>
+      <c r="AD3" s="178" t="s">
         <v>386</v>
       </c>
-      <c r="AE3" s="167"/>
-      <c r="AF3" s="167" t="s">
+      <c r="AE3" s="178"/>
+      <c r="AF3" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="AG3" s="167"/>
+      <c r="AG3" s="178"/>
     </row>
     <row r="4" spans="1:33" ht="12" customHeight="1">
-      <c r="A4" s="184"/>
-      <c r="B4" s="186"/>
-      <c r="C4" s="184"/>
-      <c r="D4" s="184"/>
-      <c r="E4" s="184"/>
-      <c r="F4" s="184"/>
-      <c r="G4" s="168"/>
+      <c r="A4" s="175"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="175"/>
+      <c r="F4" s="175"/>
+      <c r="G4" s="179"/>
       <c r="H4" s="112" t="s">
         <v>387</v>
       </c>
@@ -14508,39 +14508,39 @@
       <c r="B7" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="C7" s="172" t="s">
+      <c r="C7" s="169" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="173"/>
-      <c r="E7" s="173"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="173"/>
-      <c r="H7" s="173"/>
-      <c r="I7" s="173"/>
-      <c r="J7" s="173"/>
-      <c r="K7" s="173"/>
-      <c r="L7" s="173"/>
-      <c r="M7" s="173"/>
-      <c r="N7" s="173"/>
-      <c r="O7" s="173"/>
-      <c r="P7" s="173"/>
-      <c r="Q7" s="173"/>
-      <c r="R7" s="173"/>
-      <c r="S7" s="173"/>
-      <c r="T7" s="173"/>
-      <c r="U7" s="173"/>
-      <c r="V7" s="173"/>
-      <c r="W7" s="173"/>
-      <c r="X7" s="173"/>
-      <c r="Y7" s="173"/>
-      <c r="Z7" s="173"/>
-      <c r="AA7" s="173"/>
-      <c r="AB7" s="173"/>
-      <c r="AC7" s="173"/>
-      <c r="AD7" s="173"/>
-      <c r="AE7" s="173"/>
-      <c r="AF7" s="173"/>
-      <c r="AG7" s="174"/>
+      <c r="D7" s="170"/>
+      <c r="E7" s="170"/>
+      <c r="F7" s="170"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="170"/>
+      <c r="I7" s="170"/>
+      <c r="J7" s="170"/>
+      <c r="K7" s="170"/>
+      <c r="L7" s="170"/>
+      <c r="M7" s="170"/>
+      <c r="N7" s="170"/>
+      <c r="O7" s="170"/>
+      <c r="P7" s="170"/>
+      <c r="Q7" s="170"/>
+      <c r="R7" s="170"/>
+      <c r="S7" s="170"/>
+      <c r="T7" s="170"/>
+      <c r="U7" s="170"/>
+      <c r="V7" s="170"/>
+      <c r="W7" s="170"/>
+      <c r="X7" s="170"/>
+      <c r="Y7" s="170"/>
+      <c r="Z7" s="170"/>
+      <c r="AA7" s="170"/>
+      <c r="AB7" s="170"/>
+      <c r="AC7" s="170"/>
+      <c r="AD7" s="170"/>
+      <c r="AE7" s="170"/>
+      <c r="AF7" s="170"/>
+      <c r="AG7" s="171"/>
     </row>
     <row r="8" spans="1:33" ht="12" customHeight="1">
       <c r="A8" s="3">
@@ -14549,13 +14549,13 @@
       <c r="B8" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="C8" s="169" t="s">
+      <c r="C8" s="183" t="s">
         <v>420</v>
       </c>
-      <c r="D8" s="170"/>
-      <c r="E8" s="170"/>
-      <c r="F8" s="170"/>
-      <c r="G8" s="171"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="184"/>
+      <c r="F8" s="184"/>
+      <c r="G8" s="185"/>
       <c r="H8" s="114" t="s">
         <v>705</v>
       </c>
@@ -14782,39 +14782,39 @@
       <c r="B11" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="C11" s="172" t="s">
+      <c r="C11" s="169" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="173"/>
-      <c r="E11" s="173"/>
-      <c r="F11" s="173"/>
-      <c r="G11" s="173"/>
-      <c r="H11" s="173"/>
-      <c r="I11" s="173"/>
-      <c r="J11" s="173"/>
-      <c r="K11" s="173"/>
-      <c r="L11" s="173"/>
-      <c r="M11" s="173"/>
-      <c r="N11" s="173"/>
-      <c r="O11" s="173"/>
-      <c r="P11" s="173"/>
-      <c r="Q11" s="173"/>
-      <c r="R11" s="173"/>
-      <c r="S11" s="173"/>
-      <c r="T11" s="173"/>
-      <c r="U11" s="173"/>
-      <c r="V11" s="173"/>
-      <c r="W11" s="173"/>
-      <c r="X11" s="173"/>
-      <c r="Y11" s="173"/>
-      <c r="Z11" s="173"/>
-      <c r="AA11" s="173"/>
-      <c r="AB11" s="173"/>
-      <c r="AC11" s="173"/>
-      <c r="AD11" s="173"/>
-      <c r="AE11" s="173"/>
-      <c r="AF11" s="173"/>
-      <c r="AG11" s="174"/>
+      <c r="D11" s="170"/>
+      <c r="E11" s="170"/>
+      <c r="F11" s="170"/>
+      <c r="G11" s="170"/>
+      <c r="H11" s="170"/>
+      <c r="I11" s="170"/>
+      <c r="J11" s="170"/>
+      <c r="K11" s="170"/>
+      <c r="L11" s="170"/>
+      <c r="M11" s="170"/>
+      <c r="N11" s="170"/>
+      <c r="O11" s="170"/>
+      <c r="P11" s="170"/>
+      <c r="Q11" s="170"/>
+      <c r="R11" s="170"/>
+      <c r="S11" s="170"/>
+      <c r="T11" s="170"/>
+      <c r="U11" s="170"/>
+      <c r="V11" s="170"/>
+      <c r="W11" s="170"/>
+      <c r="X11" s="170"/>
+      <c r="Y11" s="170"/>
+      <c r="Z11" s="170"/>
+      <c r="AA11" s="170"/>
+      <c r="AB11" s="170"/>
+      <c r="AC11" s="170"/>
+      <c r="AD11" s="170"/>
+      <c r="AE11" s="170"/>
+      <c r="AF11" s="170"/>
+      <c r="AG11" s="171"/>
     </row>
     <row r="12" spans="1:33" ht="12" customHeight="1">
       <c r="A12" s="3">
@@ -14823,13 +14823,13 @@
       <c r="B12" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="C12" s="169" t="s">
+      <c r="C12" s="183" t="s">
         <v>422</v>
       </c>
-      <c r="D12" s="170"/>
-      <c r="E12" s="170"/>
-      <c r="F12" s="170"/>
-      <c r="G12" s="171"/>
+      <c r="D12" s="184"/>
+      <c r="E12" s="184"/>
+      <c r="F12" s="184"/>
+      <c r="G12" s="185"/>
       <c r="H12" s="115" t="s">
         <v>731</v>
       </c>
@@ -15056,39 +15056,39 @@
       <c r="B15" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="C15" s="172" t="s">
+      <c r="C15" s="169" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="173"/>
-      <c r="E15" s="173"/>
-      <c r="F15" s="173"/>
-      <c r="G15" s="173"/>
-      <c r="H15" s="173"/>
-      <c r="I15" s="173"/>
-      <c r="J15" s="173"/>
-      <c r="K15" s="173"/>
-      <c r="L15" s="173"/>
-      <c r="M15" s="173"/>
-      <c r="N15" s="173"/>
-      <c r="O15" s="173"/>
-      <c r="P15" s="173"/>
-      <c r="Q15" s="173"/>
-      <c r="R15" s="173"/>
-      <c r="S15" s="173"/>
-      <c r="T15" s="173"/>
-      <c r="U15" s="173"/>
-      <c r="V15" s="173"/>
-      <c r="W15" s="173"/>
-      <c r="X15" s="173"/>
-      <c r="Y15" s="173"/>
-      <c r="Z15" s="173"/>
-      <c r="AA15" s="173"/>
-      <c r="AB15" s="173"/>
-      <c r="AC15" s="173"/>
-      <c r="AD15" s="173"/>
-      <c r="AE15" s="173"/>
-      <c r="AF15" s="173"/>
-      <c r="AG15" s="174"/>
+      <c r="D15" s="170"/>
+      <c r="E15" s="170"/>
+      <c r="F15" s="170"/>
+      <c r="G15" s="170"/>
+      <c r="H15" s="170"/>
+      <c r="I15" s="170"/>
+      <c r="J15" s="170"/>
+      <c r="K15" s="170"/>
+      <c r="L15" s="170"/>
+      <c r="M15" s="170"/>
+      <c r="N15" s="170"/>
+      <c r="O15" s="170"/>
+      <c r="P15" s="170"/>
+      <c r="Q15" s="170"/>
+      <c r="R15" s="170"/>
+      <c r="S15" s="170"/>
+      <c r="T15" s="170"/>
+      <c r="U15" s="170"/>
+      <c r="V15" s="170"/>
+      <c r="W15" s="170"/>
+      <c r="X15" s="170"/>
+      <c r="Y15" s="170"/>
+      <c r="Z15" s="170"/>
+      <c r="AA15" s="170"/>
+      <c r="AB15" s="170"/>
+      <c r="AC15" s="170"/>
+      <c r="AD15" s="170"/>
+      <c r="AE15" s="170"/>
+      <c r="AF15" s="170"/>
+      <c r="AG15" s="171"/>
     </row>
     <row r="16" spans="1:33" ht="12" customHeight="1">
       <c r="A16" s="3">
@@ -15097,13 +15097,13 @@
       <c r="B16" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="C16" s="169" t="s">
+      <c r="C16" s="183" t="s">
         <v>424</v>
       </c>
-      <c r="D16" s="170"/>
-      <c r="E16" s="170"/>
-      <c r="F16" s="170"/>
-      <c r="G16" s="171"/>
+      <c r="D16" s="184"/>
+      <c r="E16" s="184"/>
+      <c r="F16" s="184"/>
+      <c r="G16" s="185"/>
       <c r="H16" s="115" t="s">
         <v>757</v>
       </c>
@@ -15330,39 +15330,39 @@
       <c r="B19" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="C19" s="172" t="s">
+      <c r="C19" s="169" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="173"/>
-      <c r="E19" s="173"/>
-      <c r="F19" s="173"/>
-      <c r="G19" s="173"/>
-      <c r="H19" s="173"/>
-      <c r="I19" s="173"/>
-      <c r="J19" s="173"/>
-      <c r="K19" s="173"/>
-      <c r="L19" s="173"/>
-      <c r="M19" s="173"/>
-      <c r="N19" s="173"/>
-      <c r="O19" s="173"/>
-      <c r="P19" s="173"/>
-      <c r="Q19" s="173"/>
-      <c r="R19" s="173"/>
-      <c r="S19" s="173"/>
-      <c r="T19" s="173"/>
-      <c r="U19" s="173"/>
-      <c r="V19" s="173"/>
-      <c r="W19" s="173"/>
-      <c r="X19" s="173"/>
-      <c r="Y19" s="173"/>
-      <c r="Z19" s="173"/>
-      <c r="AA19" s="173"/>
-      <c r="AB19" s="173"/>
-      <c r="AC19" s="173"/>
-      <c r="AD19" s="173"/>
-      <c r="AE19" s="173"/>
-      <c r="AF19" s="173"/>
-      <c r="AG19" s="174"/>
+      <c r="D19" s="170"/>
+      <c r="E19" s="170"/>
+      <c r="F19" s="170"/>
+      <c r="G19" s="170"/>
+      <c r="H19" s="170"/>
+      <c r="I19" s="170"/>
+      <c r="J19" s="170"/>
+      <c r="K19" s="170"/>
+      <c r="L19" s="170"/>
+      <c r="M19" s="170"/>
+      <c r="N19" s="170"/>
+      <c r="O19" s="170"/>
+      <c r="P19" s="170"/>
+      <c r="Q19" s="170"/>
+      <c r="R19" s="170"/>
+      <c r="S19" s="170"/>
+      <c r="T19" s="170"/>
+      <c r="U19" s="170"/>
+      <c r="V19" s="170"/>
+      <c r="W19" s="170"/>
+      <c r="X19" s="170"/>
+      <c r="Y19" s="170"/>
+      <c r="Z19" s="170"/>
+      <c r="AA19" s="170"/>
+      <c r="AB19" s="170"/>
+      <c r="AC19" s="170"/>
+      <c r="AD19" s="170"/>
+      <c r="AE19" s="170"/>
+      <c r="AF19" s="170"/>
+      <c r="AG19" s="171"/>
     </row>
     <row r="20" spans="1:33" ht="12" customHeight="1">
       <c r="A20" s="3">
@@ -15371,13 +15371,13 @@
       <c r="B20" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="C20" s="169" t="s">
+      <c r="C20" s="183" t="s">
         <v>426</v>
       </c>
-      <c r="D20" s="170"/>
-      <c r="E20" s="170"/>
-      <c r="F20" s="170"/>
-      <c r="G20" s="171"/>
+      <c r="D20" s="184"/>
+      <c r="E20" s="184"/>
+      <c r="F20" s="184"/>
+      <c r="G20" s="185"/>
       <c r="H20" s="115" t="s">
         <v>783</v>
       </c>
@@ -15604,39 +15604,39 @@
       <c r="B23" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="C23" s="172" t="s">
+      <c r="C23" s="169" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="173"/>
-      <c r="E23" s="173"/>
-      <c r="F23" s="173"/>
-      <c r="G23" s="173"/>
-      <c r="H23" s="173"/>
-      <c r="I23" s="173"/>
-      <c r="J23" s="173"/>
-      <c r="K23" s="173"/>
-      <c r="L23" s="173"/>
-      <c r="M23" s="173"/>
-      <c r="N23" s="173"/>
-      <c r="O23" s="173"/>
-      <c r="P23" s="173"/>
-      <c r="Q23" s="173"/>
-      <c r="R23" s="173"/>
-      <c r="S23" s="173"/>
-      <c r="T23" s="173"/>
-      <c r="U23" s="173"/>
-      <c r="V23" s="173"/>
-      <c r="W23" s="173"/>
-      <c r="X23" s="173"/>
-      <c r="Y23" s="173"/>
-      <c r="Z23" s="173"/>
-      <c r="AA23" s="173"/>
-      <c r="AB23" s="173"/>
-      <c r="AC23" s="173"/>
-      <c r="AD23" s="173"/>
-      <c r="AE23" s="173"/>
-      <c r="AF23" s="173"/>
-      <c r="AG23" s="174"/>
+      <c r="D23" s="170"/>
+      <c r="E23" s="170"/>
+      <c r="F23" s="170"/>
+      <c r="G23" s="170"/>
+      <c r="H23" s="170"/>
+      <c r="I23" s="170"/>
+      <c r="J23" s="170"/>
+      <c r="K23" s="170"/>
+      <c r="L23" s="170"/>
+      <c r="M23" s="170"/>
+      <c r="N23" s="170"/>
+      <c r="O23" s="170"/>
+      <c r="P23" s="170"/>
+      <c r="Q23" s="170"/>
+      <c r="R23" s="170"/>
+      <c r="S23" s="170"/>
+      <c r="T23" s="170"/>
+      <c r="U23" s="170"/>
+      <c r="V23" s="170"/>
+      <c r="W23" s="170"/>
+      <c r="X23" s="170"/>
+      <c r="Y23" s="170"/>
+      <c r="Z23" s="170"/>
+      <c r="AA23" s="170"/>
+      <c r="AB23" s="170"/>
+      <c r="AC23" s="170"/>
+      <c r="AD23" s="170"/>
+      <c r="AE23" s="170"/>
+      <c r="AF23" s="170"/>
+      <c r="AG23" s="171"/>
     </row>
     <row r="24" spans="1:33" ht="12" customHeight="1">
       <c r="A24" s="3">
@@ -15645,13 +15645,13 @@
       <c r="B24" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="C24" s="175" t="s">
+      <c r="C24" s="180" t="s">
         <v>428</v>
       </c>
-      <c r="D24" s="176"/>
-      <c r="E24" s="176"/>
-      <c r="F24" s="176"/>
-      <c r="G24" s="177"/>
+      <c r="D24" s="181"/>
+      <c r="E24" s="181"/>
+      <c r="F24" s="181"/>
+      <c r="G24" s="182"/>
       <c r="H24" s="115" t="s">
         <v>809</v>
       </c>
@@ -15876,39 +15876,39 @@
       <c r="B27" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="C27" s="172" t="s">
+      <c r="C27" s="169" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="173"/>
-      <c r="E27" s="173"/>
-      <c r="F27" s="173"/>
-      <c r="G27" s="173"/>
-      <c r="H27" s="173"/>
-      <c r="I27" s="173"/>
-      <c r="J27" s="173"/>
-      <c r="K27" s="173"/>
-      <c r="L27" s="173"/>
-      <c r="M27" s="173"/>
-      <c r="N27" s="173"/>
-      <c r="O27" s="173"/>
-      <c r="P27" s="173"/>
-      <c r="Q27" s="173"/>
-      <c r="R27" s="173"/>
-      <c r="S27" s="173"/>
-      <c r="T27" s="173"/>
-      <c r="U27" s="173"/>
-      <c r="V27" s="173"/>
-      <c r="W27" s="173"/>
-      <c r="X27" s="173"/>
-      <c r="Y27" s="173"/>
-      <c r="Z27" s="173"/>
-      <c r="AA27" s="173"/>
-      <c r="AB27" s="173"/>
-      <c r="AC27" s="173"/>
-      <c r="AD27" s="173"/>
-      <c r="AE27" s="173"/>
-      <c r="AF27" s="173"/>
-      <c r="AG27" s="174"/>
+      <c r="D27" s="170"/>
+      <c r="E27" s="170"/>
+      <c r="F27" s="170"/>
+      <c r="G27" s="170"/>
+      <c r="H27" s="170"/>
+      <c r="I27" s="170"/>
+      <c r="J27" s="170"/>
+      <c r="K27" s="170"/>
+      <c r="L27" s="170"/>
+      <c r="M27" s="170"/>
+      <c r="N27" s="170"/>
+      <c r="O27" s="170"/>
+      <c r="P27" s="170"/>
+      <c r="Q27" s="170"/>
+      <c r="R27" s="170"/>
+      <c r="S27" s="170"/>
+      <c r="T27" s="170"/>
+      <c r="U27" s="170"/>
+      <c r="V27" s="170"/>
+      <c r="W27" s="170"/>
+      <c r="X27" s="170"/>
+      <c r="Y27" s="170"/>
+      <c r="Z27" s="170"/>
+      <c r="AA27" s="170"/>
+      <c r="AB27" s="170"/>
+      <c r="AC27" s="170"/>
+      <c r="AD27" s="170"/>
+      <c r="AE27" s="170"/>
+      <c r="AF27" s="170"/>
+      <c r="AG27" s="171"/>
     </row>
     <row r="28" spans="1:33" ht="12" customHeight="1">
       <c r="A28" s="3">
@@ -15917,13 +15917,13 @@
       <c r="B28" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="C28" s="175" t="s">
+      <c r="C28" s="180" t="s">
         <v>430</v>
       </c>
-      <c r="D28" s="176"/>
-      <c r="E28" s="176"/>
-      <c r="F28" s="176"/>
-      <c r="G28" s="177"/>
+      <c r="D28" s="181"/>
+      <c r="E28" s="181"/>
+      <c r="F28" s="181"/>
+      <c r="G28" s="182"/>
       <c r="H28" s="115" t="s">
         <v>834</v>
       </c>
@@ -16150,39 +16150,39 @@
       <c r="B31" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="C31" s="172" t="s">
+      <c r="C31" s="169" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="173"/>
-      <c r="E31" s="173"/>
-      <c r="F31" s="173"/>
-      <c r="G31" s="173"/>
-      <c r="H31" s="173"/>
-      <c r="I31" s="173"/>
-      <c r="J31" s="173"/>
-      <c r="K31" s="173"/>
-      <c r="L31" s="173"/>
-      <c r="M31" s="173"/>
-      <c r="N31" s="173"/>
-      <c r="O31" s="173"/>
-      <c r="P31" s="173"/>
-      <c r="Q31" s="173"/>
-      <c r="R31" s="173"/>
-      <c r="S31" s="173"/>
-      <c r="T31" s="173"/>
-      <c r="U31" s="173"/>
-      <c r="V31" s="173"/>
-      <c r="W31" s="173"/>
-      <c r="X31" s="173"/>
-      <c r="Y31" s="173"/>
-      <c r="Z31" s="173"/>
-      <c r="AA31" s="173"/>
-      <c r="AB31" s="173"/>
-      <c r="AC31" s="173"/>
-      <c r="AD31" s="173"/>
-      <c r="AE31" s="173"/>
-      <c r="AF31" s="173"/>
-      <c r="AG31" s="174"/>
+      <c r="D31" s="170"/>
+      <c r="E31" s="170"/>
+      <c r="F31" s="170"/>
+      <c r="G31" s="170"/>
+      <c r="H31" s="170"/>
+      <c r="I31" s="170"/>
+      <c r="J31" s="170"/>
+      <c r="K31" s="170"/>
+      <c r="L31" s="170"/>
+      <c r="M31" s="170"/>
+      <c r="N31" s="170"/>
+      <c r="O31" s="170"/>
+      <c r="P31" s="170"/>
+      <c r="Q31" s="170"/>
+      <c r="R31" s="170"/>
+      <c r="S31" s="170"/>
+      <c r="T31" s="170"/>
+      <c r="U31" s="170"/>
+      <c r="V31" s="170"/>
+      <c r="W31" s="170"/>
+      <c r="X31" s="170"/>
+      <c r="Y31" s="170"/>
+      <c r="Z31" s="170"/>
+      <c r="AA31" s="170"/>
+      <c r="AB31" s="170"/>
+      <c r="AC31" s="170"/>
+      <c r="AD31" s="170"/>
+      <c r="AE31" s="170"/>
+      <c r="AF31" s="170"/>
+      <c r="AG31" s="171"/>
     </row>
     <row r="32" spans="1:33" ht="12" customHeight="1">
       <c r="A32" s="3">
@@ -16191,13 +16191,13 @@
       <c r="B32" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="C32" s="175" t="s">
+      <c r="C32" s="180" t="s">
         <v>432</v>
       </c>
-      <c r="D32" s="176"/>
-      <c r="E32" s="176"/>
-      <c r="F32" s="176"/>
-      <c r="G32" s="177"/>
+      <c r="D32" s="181"/>
+      <c r="E32" s="181"/>
+      <c r="F32" s="181"/>
+      <c r="G32" s="182"/>
       <c r="H32" s="115" t="s">
         <v>860</v>
       </c>
@@ -16424,39 +16424,39 @@
       <c r="B35" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="C35" s="172" t="s">
+      <c r="C35" s="169" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="173"/>
-      <c r="E35" s="173"/>
-      <c r="F35" s="173"/>
-      <c r="G35" s="173"/>
-      <c r="H35" s="173"/>
-      <c r="I35" s="173"/>
-      <c r="J35" s="173"/>
-      <c r="K35" s="173"/>
-      <c r="L35" s="173"/>
-      <c r="M35" s="173"/>
-      <c r="N35" s="173"/>
-      <c r="O35" s="173"/>
-      <c r="P35" s="173"/>
-      <c r="Q35" s="173"/>
-      <c r="R35" s="173"/>
-      <c r="S35" s="173"/>
-      <c r="T35" s="173"/>
-      <c r="U35" s="173"/>
-      <c r="V35" s="173"/>
-      <c r="W35" s="173"/>
-      <c r="X35" s="173"/>
-      <c r="Y35" s="173"/>
-      <c r="Z35" s="173"/>
-      <c r="AA35" s="173"/>
-      <c r="AB35" s="173"/>
-      <c r="AC35" s="173"/>
-      <c r="AD35" s="173"/>
-      <c r="AE35" s="173"/>
-      <c r="AF35" s="173"/>
-      <c r="AG35" s="174"/>
+      <c r="D35" s="170"/>
+      <c r="E35" s="170"/>
+      <c r="F35" s="170"/>
+      <c r="G35" s="170"/>
+      <c r="H35" s="170"/>
+      <c r="I35" s="170"/>
+      <c r="J35" s="170"/>
+      <c r="K35" s="170"/>
+      <c r="L35" s="170"/>
+      <c r="M35" s="170"/>
+      <c r="N35" s="170"/>
+      <c r="O35" s="170"/>
+      <c r="P35" s="170"/>
+      <c r="Q35" s="170"/>
+      <c r="R35" s="170"/>
+      <c r="S35" s="170"/>
+      <c r="T35" s="170"/>
+      <c r="U35" s="170"/>
+      <c r="V35" s="170"/>
+      <c r="W35" s="170"/>
+      <c r="X35" s="170"/>
+      <c r="Y35" s="170"/>
+      <c r="Z35" s="170"/>
+      <c r="AA35" s="170"/>
+      <c r="AB35" s="170"/>
+      <c r="AC35" s="170"/>
+      <c r="AD35" s="170"/>
+      <c r="AE35" s="170"/>
+      <c r="AF35" s="170"/>
+      <c r="AG35" s="171"/>
     </row>
     <row r="36" spans="1:33" ht="12" customHeight="1">
       <c r="A36" s="3">
@@ -16465,13 +16465,13 @@
       <c r="B36" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="C36" s="175" t="s">
+      <c r="C36" s="180" t="s">
         <v>434</v>
       </c>
-      <c r="D36" s="176"/>
-      <c r="E36" s="176"/>
-      <c r="F36" s="176"/>
-      <c r="G36" s="177"/>
+      <c r="D36" s="181"/>
+      <c r="E36" s="181"/>
+      <c r="F36" s="181"/>
+      <c r="G36" s="182"/>
       <c r="H36" s="115" t="s">
         <v>886</v>
       </c>
@@ -16698,39 +16698,39 @@
       <c r="B39" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="C39" s="172" t="s">
+      <c r="C39" s="169" t="s">
         <v>87</v>
       </c>
-      <c r="D39" s="173"/>
-      <c r="E39" s="173"/>
-      <c r="F39" s="173"/>
-      <c r="G39" s="173"/>
-      <c r="H39" s="173"/>
-      <c r="I39" s="173"/>
-      <c r="J39" s="173"/>
-      <c r="K39" s="173"/>
-      <c r="L39" s="173"/>
-      <c r="M39" s="173"/>
-      <c r="N39" s="173"/>
-      <c r="O39" s="173"/>
-      <c r="P39" s="173"/>
-      <c r="Q39" s="173"/>
-      <c r="R39" s="173"/>
-      <c r="S39" s="173"/>
-      <c r="T39" s="173"/>
-      <c r="U39" s="173"/>
-      <c r="V39" s="173"/>
-      <c r="W39" s="173"/>
-      <c r="X39" s="173"/>
-      <c r="Y39" s="173"/>
-      <c r="Z39" s="173"/>
-      <c r="AA39" s="173"/>
-      <c r="AB39" s="173"/>
-      <c r="AC39" s="173"/>
-      <c r="AD39" s="173"/>
-      <c r="AE39" s="173"/>
-      <c r="AF39" s="173"/>
-      <c r="AG39" s="174"/>
+      <c r="D39" s="170"/>
+      <c r="E39" s="170"/>
+      <c r="F39" s="170"/>
+      <c r="G39" s="170"/>
+      <c r="H39" s="170"/>
+      <c r="I39" s="170"/>
+      <c r="J39" s="170"/>
+      <c r="K39" s="170"/>
+      <c r="L39" s="170"/>
+      <c r="M39" s="170"/>
+      <c r="N39" s="170"/>
+      <c r="O39" s="170"/>
+      <c r="P39" s="170"/>
+      <c r="Q39" s="170"/>
+      <c r="R39" s="170"/>
+      <c r="S39" s="170"/>
+      <c r="T39" s="170"/>
+      <c r="U39" s="170"/>
+      <c r="V39" s="170"/>
+      <c r="W39" s="170"/>
+      <c r="X39" s="170"/>
+      <c r="Y39" s="170"/>
+      <c r="Z39" s="170"/>
+      <c r="AA39" s="170"/>
+      <c r="AB39" s="170"/>
+      <c r="AC39" s="170"/>
+      <c r="AD39" s="170"/>
+      <c r="AE39" s="170"/>
+      <c r="AF39" s="170"/>
+      <c r="AG39" s="171"/>
     </row>
     <row r="40" spans="1:33" ht="12" customHeight="1">
       <c r="A40" s="3">
@@ -16739,13 +16739,13 @@
       <c r="B40" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="C40" s="175" t="s">
+      <c r="C40" s="180" t="s">
         <v>436</v>
       </c>
-      <c r="D40" s="176"/>
-      <c r="E40" s="176"/>
-      <c r="F40" s="176"/>
-      <c r="G40" s="177"/>
+      <c r="D40" s="181"/>
+      <c r="E40" s="181"/>
+      <c r="F40" s="181"/>
+      <c r="G40" s="182"/>
       <c r="H40" s="115" t="s">
         <v>912</v>
       </c>
@@ -16827,14 +16827,14 @@
     </row>
     <row r="41" spans="1:33" ht="12" customHeight="1">
       <c r="A41" s="7"/>
-      <c r="B41" s="169" t="s">
+      <c r="B41" s="183" t="s">
         <v>437</v>
       </c>
-      <c r="C41" s="170"/>
-      <c r="D41" s="170"/>
-      <c r="E41" s="170"/>
-      <c r="F41" s="170"/>
-      <c r="G41" s="171"/>
+      <c r="C41" s="184"/>
+      <c r="D41" s="184"/>
+      <c r="E41" s="184"/>
+      <c r="F41" s="184"/>
+      <c r="G41" s="185"/>
       <c r="H41" s="117" t="s">
         <v>938</v>
       </c>
@@ -16926,88 +16926,88 @@
       </c>
     </row>
     <row r="45" spans="1:33">
-      <c r="A45" s="184" t="s">
+      <c r="A45" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="185" t="s">
+      <c r="B45" s="176" t="s">
         <v>371</v>
       </c>
-      <c r="C45" s="184" t="s">
+      <c r="C45" s="175" t="s">
         <v>372</v>
       </c>
-      <c r="D45" s="184" t="s">
+      <c r="D45" s="175" t="s">
         <v>373</v>
       </c>
-      <c r="E45" s="184" t="s">
+      <c r="E45" s="175" t="s">
         <v>374</v>
       </c>
-      <c r="F45" s="184" t="s">
+      <c r="F45" s="175" t="s">
         <v>1</v>
       </c>
-      <c r="G45" s="168" t="s">
+      <c r="G45" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="H45" s="167" t="s">
+      <c r="H45" s="178" t="s">
         <v>375</v>
       </c>
-      <c r="I45" s="167"/>
-      <c r="J45" s="167" t="s">
+      <c r="I45" s="178"/>
+      <c r="J45" s="178" t="s">
         <v>376</v>
       </c>
-      <c r="K45" s="167"/>
-      <c r="L45" s="167" t="s">
+      <c r="K45" s="178"/>
+      <c r="L45" s="178" t="s">
         <v>377</v>
       </c>
-      <c r="M45" s="167"/>
-      <c r="N45" s="167" t="s">
+      <c r="M45" s="178"/>
+      <c r="N45" s="178" t="s">
         <v>378</v>
       </c>
-      <c r="O45" s="167"/>
-      <c r="P45" s="167" t="s">
+      <c r="O45" s="178"/>
+      <c r="P45" s="178" t="s">
         <v>379</v>
       </c>
-      <c r="Q45" s="167"/>
-      <c r="R45" s="167" t="s">
+      <c r="Q45" s="178"/>
+      <c r="R45" s="178" t="s">
         <v>380</v>
       </c>
-      <c r="S45" s="167"/>
-      <c r="T45" s="167" t="s">
+      <c r="S45" s="178"/>
+      <c r="T45" s="178" t="s">
         <v>381</v>
       </c>
-      <c r="U45" s="167"/>
-      <c r="V45" s="167" t="s">
+      <c r="U45" s="178"/>
+      <c r="V45" s="178" t="s">
         <v>382</v>
       </c>
-      <c r="W45" s="167"/>
-      <c r="X45" s="167" t="s">
+      <c r="W45" s="178"/>
+      <c r="X45" s="178" t="s">
         <v>383</v>
       </c>
-      <c r="Y45" s="167"/>
-      <c r="Z45" s="167" t="s">
+      <c r="Y45" s="178"/>
+      <c r="Z45" s="178" t="s">
         <v>384</v>
       </c>
-      <c r="AA45" s="167"/>
-      <c r="AB45" s="167" t="s">
+      <c r="AA45" s="178"/>
+      <c r="AB45" s="178" t="s">
         <v>385</v>
       </c>
-      <c r="AC45" s="167"/>
-      <c r="AD45" s="167" t="s">
+      <c r="AC45" s="178"/>
+      <c r="AD45" s="178" t="s">
         <v>386</v>
       </c>
-      <c r="AE45" s="167"/>
-      <c r="AF45" s="167" t="s">
+      <c r="AE45" s="178"/>
+      <c r="AF45" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="AG45" s="167"/>
+      <c r="AG45" s="178"/>
     </row>
     <row r="46" spans="1:33">
-      <c r="A46" s="184"/>
-      <c r="B46" s="186"/>
-      <c r="C46" s="184"/>
-      <c r="D46" s="184"/>
-      <c r="E46" s="184"/>
-      <c r="F46" s="184"/>
-      <c r="G46" s="168"/>
+      <c r="A46" s="175"/>
+      <c r="B46" s="177"/>
+      <c r="C46" s="175"/>
+      <c r="D46" s="175"/>
+      <c r="E46" s="175"/>
+      <c r="F46" s="175"/>
+      <c r="G46" s="179"/>
       <c r="H46" s="112" t="s">
         <v>387</v>
       </c>
@@ -17234,39 +17234,39 @@
       <c r="B49" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="C49" s="172" t="s">
+      <c r="C49" s="169" t="s">
         <v>87</v>
       </c>
-      <c r="D49" s="173"/>
-      <c r="E49" s="173"/>
-      <c r="F49" s="173"/>
-      <c r="G49" s="173"/>
-      <c r="H49" s="173"/>
-      <c r="I49" s="173"/>
-      <c r="J49" s="173"/>
-      <c r="K49" s="173"/>
-      <c r="L49" s="173"/>
-      <c r="M49" s="173"/>
-      <c r="N49" s="173"/>
-      <c r="O49" s="173"/>
-      <c r="P49" s="173"/>
-      <c r="Q49" s="173"/>
-      <c r="R49" s="173"/>
-      <c r="S49" s="173"/>
-      <c r="T49" s="173"/>
-      <c r="U49" s="173"/>
-      <c r="V49" s="173"/>
-      <c r="W49" s="173"/>
-      <c r="X49" s="173"/>
-      <c r="Y49" s="173"/>
-      <c r="Z49" s="173"/>
-      <c r="AA49" s="173"/>
-      <c r="AB49" s="173"/>
-      <c r="AC49" s="173"/>
-      <c r="AD49" s="173"/>
-      <c r="AE49" s="173"/>
-      <c r="AF49" s="173"/>
-      <c r="AG49" s="174"/>
+      <c r="D49" s="170"/>
+      <c r="E49" s="170"/>
+      <c r="F49" s="170"/>
+      <c r="G49" s="170"/>
+      <c r="H49" s="170"/>
+      <c r="I49" s="170"/>
+      <c r="J49" s="170"/>
+      <c r="K49" s="170"/>
+      <c r="L49" s="170"/>
+      <c r="M49" s="170"/>
+      <c r="N49" s="170"/>
+      <c r="O49" s="170"/>
+      <c r="P49" s="170"/>
+      <c r="Q49" s="170"/>
+      <c r="R49" s="170"/>
+      <c r="S49" s="170"/>
+      <c r="T49" s="170"/>
+      <c r="U49" s="170"/>
+      <c r="V49" s="170"/>
+      <c r="W49" s="170"/>
+      <c r="X49" s="170"/>
+      <c r="Y49" s="170"/>
+      <c r="Z49" s="170"/>
+      <c r="AA49" s="170"/>
+      <c r="AB49" s="170"/>
+      <c r="AC49" s="170"/>
+      <c r="AD49" s="170"/>
+      <c r="AE49" s="170"/>
+      <c r="AF49" s="170"/>
+      <c r="AG49" s="171"/>
     </row>
     <row r="50" spans="1:33">
       <c r="A50" s="10">
@@ -17275,13 +17275,13 @@
       <c r="B50" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="C50" s="178" t="s">
+      <c r="C50" s="166" t="s">
         <v>440</v>
       </c>
-      <c r="D50" s="179"/>
-      <c r="E50" s="179"/>
-      <c r="F50" s="179"/>
-      <c r="G50" s="180"/>
+      <c r="D50" s="167"/>
+      <c r="E50" s="167"/>
+      <c r="F50" s="167"/>
+      <c r="G50" s="168"/>
       <c r="H50" s="115" t="s">
         <v>963</v>
       </c>
@@ -17508,39 +17508,39 @@
       <c r="B53" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="C53" s="172" t="s">
+      <c r="C53" s="169" t="s">
         <v>87</v>
       </c>
-      <c r="D53" s="172"/>
-      <c r="E53" s="172"/>
-      <c r="F53" s="172"/>
-      <c r="G53" s="172"/>
-      <c r="H53" s="172"/>
-      <c r="I53" s="172"/>
-      <c r="J53" s="172"/>
-      <c r="K53" s="172"/>
-      <c r="L53" s="172"/>
-      <c r="M53" s="172"/>
-      <c r="N53" s="172"/>
-      <c r="O53" s="172"/>
-      <c r="P53" s="172"/>
-      <c r="Q53" s="172"/>
-      <c r="R53" s="172"/>
-      <c r="S53" s="172"/>
-      <c r="T53" s="172"/>
-      <c r="U53" s="172"/>
-      <c r="V53" s="172"/>
-      <c r="W53" s="172"/>
-      <c r="X53" s="172"/>
-      <c r="Y53" s="172"/>
-      <c r="Z53" s="172"/>
-      <c r="AA53" s="172"/>
-      <c r="AB53" s="172"/>
-      <c r="AC53" s="172"/>
-      <c r="AD53" s="172"/>
-      <c r="AE53" s="172"/>
-      <c r="AF53" s="172"/>
-      <c r="AG53" s="172"/>
+      <c r="D53" s="169"/>
+      <c r="E53" s="169"/>
+      <c r="F53" s="169"/>
+      <c r="G53" s="169"/>
+      <c r="H53" s="169"/>
+      <c r="I53" s="169"/>
+      <c r="J53" s="169"/>
+      <c r="K53" s="169"/>
+      <c r="L53" s="169"/>
+      <c r="M53" s="169"/>
+      <c r="N53" s="169"/>
+      <c r="O53" s="169"/>
+      <c r="P53" s="169"/>
+      <c r="Q53" s="169"/>
+      <c r="R53" s="169"/>
+      <c r="S53" s="169"/>
+      <c r="T53" s="169"/>
+      <c r="U53" s="169"/>
+      <c r="V53" s="169"/>
+      <c r="W53" s="169"/>
+      <c r="X53" s="169"/>
+      <c r="Y53" s="169"/>
+      <c r="Z53" s="169"/>
+      <c r="AA53" s="169"/>
+      <c r="AB53" s="169"/>
+      <c r="AC53" s="169"/>
+      <c r="AD53" s="169"/>
+      <c r="AE53" s="169"/>
+      <c r="AF53" s="169"/>
+      <c r="AG53" s="169"/>
     </row>
     <row r="54" spans="1:33">
       <c r="A54" s="10">
@@ -17549,13 +17549,13 @@
       <c r="B54" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="C54" s="178" t="s">
+      <c r="C54" s="166" t="s">
         <v>442</v>
       </c>
-      <c r="D54" s="179"/>
-      <c r="E54" s="179"/>
-      <c r="F54" s="179"/>
-      <c r="G54" s="180"/>
+      <c r="D54" s="167"/>
+      <c r="E54" s="167"/>
+      <c r="F54" s="167"/>
+      <c r="G54" s="168"/>
       <c r="H54" s="115" t="s">
         <v>989</v>
       </c>
@@ -17782,39 +17782,39 @@
       <c r="B57" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="C57" s="172" t="s">
+      <c r="C57" s="169" t="s">
         <v>87</v>
       </c>
-      <c r="D57" s="173"/>
-      <c r="E57" s="173"/>
-      <c r="F57" s="173"/>
-      <c r="G57" s="173"/>
-      <c r="H57" s="173"/>
-      <c r="I57" s="173"/>
-      <c r="J57" s="173"/>
-      <c r="K57" s="173"/>
-      <c r="L57" s="173"/>
-      <c r="M57" s="173"/>
-      <c r="N57" s="173"/>
-      <c r="O57" s="173"/>
-      <c r="P57" s="173"/>
-      <c r="Q57" s="173"/>
-      <c r="R57" s="173"/>
-      <c r="S57" s="173"/>
-      <c r="T57" s="173"/>
-      <c r="U57" s="173"/>
-      <c r="V57" s="173"/>
-      <c r="W57" s="173"/>
-      <c r="X57" s="173"/>
-      <c r="Y57" s="173"/>
-      <c r="Z57" s="173"/>
-      <c r="AA57" s="173"/>
-      <c r="AB57" s="173"/>
-      <c r="AC57" s="173"/>
-      <c r="AD57" s="173"/>
-      <c r="AE57" s="173"/>
-      <c r="AF57" s="173"/>
-      <c r="AG57" s="174"/>
+      <c r="D57" s="170"/>
+      <c r="E57" s="170"/>
+      <c r="F57" s="170"/>
+      <c r="G57" s="170"/>
+      <c r="H57" s="170"/>
+      <c r="I57" s="170"/>
+      <c r="J57" s="170"/>
+      <c r="K57" s="170"/>
+      <c r="L57" s="170"/>
+      <c r="M57" s="170"/>
+      <c r="N57" s="170"/>
+      <c r="O57" s="170"/>
+      <c r="P57" s="170"/>
+      <c r="Q57" s="170"/>
+      <c r="R57" s="170"/>
+      <c r="S57" s="170"/>
+      <c r="T57" s="170"/>
+      <c r="U57" s="170"/>
+      <c r="V57" s="170"/>
+      <c r="W57" s="170"/>
+      <c r="X57" s="170"/>
+      <c r="Y57" s="170"/>
+      <c r="Z57" s="170"/>
+      <c r="AA57" s="170"/>
+      <c r="AB57" s="170"/>
+      <c r="AC57" s="170"/>
+      <c r="AD57" s="170"/>
+      <c r="AE57" s="170"/>
+      <c r="AF57" s="170"/>
+      <c r="AG57" s="171"/>
     </row>
     <row r="58" spans="1:33">
       <c r="A58" s="10">
@@ -17823,13 +17823,13 @@
       <c r="B58" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="C58" s="178" t="s">
+      <c r="C58" s="166" t="s">
         <v>444</v>
       </c>
-      <c r="D58" s="179"/>
-      <c r="E58" s="179"/>
-      <c r="F58" s="179"/>
-      <c r="G58" s="180"/>
+      <c r="D58" s="167"/>
+      <c r="E58" s="167"/>
+      <c r="F58" s="167"/>
+      <c r="G58" s="168"/>
       <c r="H58" s="115" t="s">
         <v>1015</v>
       </c>
@@ -18056,39 +18056,39 @@
       <c r="B61" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="C61" s="172" t="s">
+      <c r="C61" s="169" t="s">
         <v>87</v>
       </c>
-      <c r="D61" s="173"/>
-      <c r="E61" s="173"/>
-      <c r="F61" s="173"/>
-      <c r="G61" s="173"/>
-      <c r="H61" s="173"/>
-      <c r="I61" s="173"/>
-      <c r="J61" s="173"/>
-      <c r="K61" s="173"/>
-      <c r="L61" s="173"/>
-      <c r="M61" s="173"/>
-      <c r="N61" s="173"/>
-      <c r="O61" s="173"/>
-      <c r="P61" s="173"/>
-      <c r="Q61" s="173"/>
-      <c r="R61" s="173"/>
-      <c r="S61" s="173"/>
-      <c r="T61" s="173"/>
-      <c r="U61" s="173"/>
-      <c r="V61" s="173"/>
-      <c r="W61" s="173"/>
-      <c r="X61" s="173"/>
-      <c r="Y61" s="173"/>
-      <c r="Z61" s="173"/>
-      <c r="AA61" s="173"/>
-      <c r="AB61" s="173"/>
-      <c r="AC61" s="173"/>
-      <c r="AD61" s="173"/>
-      <c r="AE61" s="173"/>
-      <c r="AF61" s="173"/>
-      <c r="AG61" s="174"/>
+      <c r="D61" s="170"/>
+      <c r="E61" s="170"/>
+      <c r="F61" s="170"/>
+      <c r="G61" s="170"/>
+      <c r="H61" s="170"/>
+      <c r="I61" s="170"/>
+      <c r="J61" s="170"/>
+      <c r="K61" s="170"/>
+      <c r="L61" s="170"/>
+      <c r="M61" s="170"/>
+      <c r="N61" s="170"/>
+      <c r="O61" s="170"/>
+      <c r="P61" s="170"/>
+      <c r="Q61" s="170"/>
+      <c r="R61" s="170"/>
+      <c r="S61" s="170"/>
+      <c r="T61" s="170"/>
+      <c r="U61" s="170"/>
+      <c r="V61" s="170"/>
+      <c r="W61" s="170"/>
+      <c r="X61" s="170"/>
+      <c r="Y61" s="170"/>
+      <c r="Z61" s="170"/>
+      <c r="AA61" s="170"/>
+      <c r="AB61" s="170"/>
+      <c r="AC61" s="170"/>
+      <c r="AD61" s="170"/>
+      <c r="AE61" s="170"/>
+      <c r="AF61" s="170"/>
+      <c r="AG61" s="171"/>
     </row>
     <row r="62" spans="1:33">
       <c r="A62" s="10">
@@ -18097,13 +18097,13 @@
       <c r="B62" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="C62" s="178" t="s">
+      <c r="C62" s="166" t="s">
         <v>446</v>
       </c>
-      <c r="D62" s="179"/>
-      <c r="E62" s="179"/>
-      <c r="F62" s="179"/>
-      <c r="G62" s="180"/>
+      <c r="D62" s="167"/>
+      <c r="E62" s="167"/>
+      <c r="F62" s="167"/>
+      <c r="G62" s="168"/>
       <c r="H62" s="115" t="s">
         <v>1041</v>
       </c>
@@ -18330,39 +18330,39 @@
       <c r="B65" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="C65" s="172" t="s">
+      <c r="C65" s="169" t="s">
         <v>87</v>
       </c>
-      <c r="D65" s="173"/>
-      <c r="E65" s="173"/>
-      <c r="F65" s="173"/>
-      <c r="G65" s="173"/>
-      <c r="H65" s="173"/>
-      <c r="I65" s="173"/>
-      <c r="J65" s="173"/>
-      <c r="K65" s="173"/>
-      <c r="L65" s="173"/>
-      <c r="M65" s="173"/>
-      <c r="N65" s="173"/>
-      <c r="O65" s="173"/>
-      <c r="P65" s="173"/>
-      <c r="Q65" s="173"/>
-      <c r="R65" s="173"/>
-      <c r="S65" s="173"/>
-      <c r="T65" s="173"/>
-      <c r="U65" s="173"/>
-      <c r="V65" s="173"/>
-      <c r="W65" s="173"/>
-      <c r="X65" s="173"/>
-      <c r="Y65" s="173"/>
-      <c r="Z65" s="173"/>
-      <c r="AA65" s="173"/>
-      <c r="AB65" s="173"/>
-      <c r="AC65" s="173"/>
-      <c r="AD65" s="173"/>
-      <c r="AE65" s="173"/>
-      <c r="AF65" s="173"/>
-      <c r="AG65" s="174"/>
+      <c r="D65" s="170"/>
+      <c r="E65" s="170"/>
+      <c r="F65" s="170"/>
+      <c r="G65" s="170"/>
+      <c r="H65" s="170"/>
+      <c r="I65" s="170"/>
+      <c r="J65" s="170"/>
+      <c r="K65" s="170"/>
+      <c r="L65" s="170"/>
+      <c r="M65" s="170"/>
+      <c r="N65" s="170"/>
+      <c r="O65" s="170"/>
+      <c r="P65" s="170"/>
+      <c r="Q65" s="170"/>
+      <c r="R65" s="170"/>
+      <c r="S65" s="170"/>
+      <c r="T65" s="170"/>
+      <c r="U65" s="170"/>
+      <c r="V65" s="170"/>
+      <c r="W65" s="170"/>
+      <c r="X65" s="170"/>
+      <c r="Y65" s="170"/>
+      <c r="Z65" s="170"/>
+      <c r="AA65" s="170"/>
+      <c r="AB65" s="170"/>
+      <c r="AC65" s="170"/>
+      <c r="AD65" s="170"/>
+      <c r="AE65" s="170"/>
+      <c r="AF65" s="170"/>
+      <c r="AG65" s="171"/>
     </row>
     <row r="66" spans="1:33">
       <c r="A66" s="10">
@@ -18371,13 +18371,13 @@
       <c r="B66" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="C66" s="178" t="s">
+      <c r="C66" s="166" t="s">
         <v>448</v>
       </c>
-      <c r="D66" s="179"/>
-      <c r="E66" s="179"/>
-      <c r="F66" s="179"/>
-      <c r="G66" s="180"/>
+      <c r="D66" s="167"/>
+      <c r="E66" s="167"/>
+      <c r="F66" s="167"/>
+      <c r="G66" s="168"/>
       <c r="H66" s="115" t="s">
         <v>1067</v>
       </c>
@@ -18604,39 +18604,39 @@
       <c r="B69" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="C69" s="172" t="s">
+      <c r="C69" s="169" t="s">
         <v>87</v>
       </c>
-      <c r="D69" s="173"/>
-      <c r="E69" s="173"/>
-      <c r="F69" s="173"/>
-      <c r="G69" s="173"/>
-      <c r="H69" s="173"/>
-      <c r="I69" s="173"/>
-      <c r="J69" s="173"/>
-      <c r="K69" s="173"/>
-      <c r="L69" s="173"/>
-      <c r="M69" s="173"/>
-      <c r="N69" s="173"/>
-      <c r="O69" s="173"/>
-      <c r="P69" s="173"/>
-      <c r="Q69" s="173"/>
-      <c r="R69" s="173"/>
-      <c r="S69" s="173"/>
-      <c r="T69" s="173"/>
-      <c r="U69" s="173"/>
-      <c r="V69" s="173"/>
-      <c r="W69" s="173"/>
-      <c r="X69" s="173"/>
-      <c r="Y69" s="173"/>
-      <c r="Z69" s="173"/>
-      <c r="AA69" s="173"/>
-      <c r="AB69" s="173"/>
-      <c r="AC69" s="173"/>
-      <c r="AD69" s="173"/>
-      <c r="AE69" s="173"/>
-      <c r="AF69" s="173"/>
-      <c r="AG69" s="174"/>
+      <c r="D69" s="170"/>
+      <c r="E69" s="170"/>
+      <c r="F69" s="170"/>
+      <c r="G69" s="170"/>
+      <c r="H69" s="170"/>
+      <c r="I69" s="170"/>
+      <c r="J69" s="170"/>
+      <c r="K69" s="170"/>
+      <c r="L69" s="170"/>
+      <c r="M69" s="170"/>
+      <c r="N69" s="170"/>
+      <c r="O69" s="170"/>
+      <c r="P69" s="170"/>
+      <c r="Q69" s="170"/>
+      <c r="R69" s="170"/>
+      <c r="S69" s="170"/>
+      <c r="T69" s="170"/>
+      <c r="U69" s="170"/>
+      <c r="V69" s="170"/>
+      <c r="W69" s="170"/>
+      <c r="X69" s="170"/>
+      <c r="Y69" s="170"/>
+      <c r="Z69" s="170"/>
+      <c r="AA69" s="170"/>
+      <c r="AB69" s="170"/>
+      <c r="AC69" s="170"/>
+      <c r="AD69" s="170"/>
+      <c r="AE69" s="170"/>
+      <c r="AF69" s="170"/>
+      <c r="AG69" s="171"/>
     </row>
     <row r="70" spans="1:33">
       <c r="A70" s="10">
@@ -18645,13 +18645,13 @@
       <c r="B70" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="C70" s="178" t="s">
+      <c r="C70" s="166" t="s">
         <v>450</v>
       </c>
-      <c r="D70" s="179"/>
-      <c r="E70" s="179"/>
-      <c r="F70" s="179"/>
-      <c r="G70" s="180"/>
+      <c r="D70" s="167"/>
+      <c r="E70" s="167"/>
+      <c r="F70" s="167"/>
+      <c r="G70" s="168"/>
       <c r="H70" s="115" t="s">
         <v>1093</v>
       </c>
@@ -18878,39 +18878,39 @@
       <c r="B73" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="C73" s="172" t="s">
+      <c r="C73" s="169" t="s">
         <v>87</v>
       </c>
-      <c r="D73" s="173"/>
-      <c r="E73" s="173"/>
-      <c r="F73" s="173"/>
-      <c r="G73" s="173"/>
-      <c r="H73" s="173"/>
-      <c r="I73" s="173"/>
-      <c r="J73" s="173"/>
-      <c r="K73" s="173"/>
-      <c r="L73" s="173"/>
-      <c r="M73" s="173"/>
-      <c r="N73" s="173"/>
-      <c r="O73" s="173"/>
-      <c r="P73" s="173"/>
-      <c r="Q73" s="173"/>
-      <c r="R73" s="173"/>
-      <c r="S73" s="173"/>
-      <c r="T73" s="173"/>
-      <c r="U73" s="173"/>
-      <c r="V73" s="173"/>
-      <c r="W73" s="173"/>
-      <c r="X73" s="173"/>
-      <c r="Y73" s="173"/>
-      <c r="Z73" s="173"/>
-      <c r="AA73" s="173"/>
-      <c r="AB73" s="173"/>
-      <c r="AC73" s="173"/>
-      <c r="AD73" s="173"/>
-      <c r="AE73" s="173"/>
-      <c r="AF73" s="173"/>
-      <c r="AG73" s="174"/>
+      <c r="D73" s="170"/>
+      <c r="E73" s="170"/>
+      <c r="F73" s="170"/>
+      <c r="G73" s="170"/>
+      <c r="H73" s="170"/>
+      <c r="I73" s="170"/>
+      <c r="J73" s="170"/>
+      <c r="K73" s="170"/>
+      <c r="L73" s="170"/>
+      <c r="M73" s="170"/>
+      <c r="N73" s="170"/>
+      <c r="O73" s="170"/>
+      <c r="P73" s="170"/>
+      <c r="Q73" s="170"/>
+      <c r="R73" s="170"/>
+      <c r="S73" s="170"/>
+      <c r="T73" s="170"/>
+      <c r="U73" s="170"/>
+      <c r="V73" s="170"/>
+      <c r="W73" s="170"/>
+      <c r="X73" s="170"/>
+      <c r="Y73" s="170"/>
+      <c r="Z73" s="170"/>
+      <c r="AA73" s="170"/>
+      <c r="AB73" s="170"/>
+      <c r="AC73" s="170"/>
+      <c r="AD73" s="170"/>
+      <c r="AE73" s="170"/>
+      <c r="AF73" s="170"/>
+      <c r="AG73" s="171"/>
     </row>
     <row r="74" spans="1:33">
       <c r="A74" s="10">
@@ -18919,13 +18919,13 @@
       <c r="B74" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="C74" s="178" t="s">
+      <c r="C74" s="166" t="s">
         <v>452</v>
       </c>
-      <c r="D74" s="179"/>
-      <c r="E74" s="179"/>
-      <c r="F74" s="179"/>
-      <c r="G74" s="180"/>
+      <c r="D74" s="167"/>
+      <c r="E74" s="167"/>
+      <c r="F74" s="167"/>
+      <c r="G74" s="168"/>
       <c r="H74" s="115" t="s">
         <v>1119</v>
       </c>
@@ -19152,39 +19152,39 @@
       <c r="B77" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="C77" s="172" t="s">
+      <c r="C77" s="169" t="s">
         <v>87</v>
       </c>
-      <c r="D77" s="173"/>
-      <c r="E77" s="173"/>
-      <c r="F77" s="173"/>
-      <c r="G77" s="173"/>
-      <c r="H77" s="173"/>
-      <c r="I77" s="173"/>
-      <c r="J77" s="173"/>
-      <c r="K77" s="173"/>
-      <c r="L77" s="173"/>
-      <c r="M77" s="173"/>
-      <c r="N77" s="173"/>
-      <c r="O77" s="173"/>
-      <c r="P77" s="173"/>
-      <c r="Q77" s="173"/>
-      <c r="R77" s="173"/>
-      <c r="S77" s="173"/>
-      <c r="T77" s="173"/>
-      <c r="U77" s="173"/>
-      <c r="V77" s="173"/>
-      <c r="W77" s="173"/>
-      <c r="X77" s="173"/>
-      <c r="Y77" s="173"/>
-      <c r="Z77" s="173"/>
-      <c r="AA77" s="173"/>
-      <c r="AB77" s="173"/>
-      <c r="AC77" s="173"/>
-      <c r="AD77" s="173"/>
-      <c r="AE77" s="173"/>
-      <c r="AF77" s="173"/>
-      <c r="AG77" s="174"/>
+      <c r="D77" s="170"/>
+      <c r="E77" s="170"/>
+      <c r="F77" s="170"/>
+      <c r="G77" s="170"/>
+      <c r="H77" s="170"/>
+      <c r="I77" s="170"/>
+      <c r="J77" s="170"/>
+      <c r="K77" s="170"/>
+      <c r="L77" s="170"/>
+      <c r="M77" s="170"/>
+      <c r="N77" s="170"/>
+      <c r="O77" s="170"/>
+      <c r="P77" s="170"/>
+      <c r="Q77" s="170"/>
+      <c r="R77" s="170"/>
+      <c r="S77" s="170"/>
+      <c r="T77" s="170"/>
+      <c r="U77" s="170"/>
+      <c r="V77" s="170"/>
+      <c r="W77" s="170"/>
+      <c r="X77" s="170"/>
+      <c r="Y77" s="170"/>
+      <c r="Z77" s="170"/>
+      <c r="AA77" s="170"/>
+      <c r="AB77" s="170"/>
+      <c r="AC77" s="170"/>
+      <c r="AD77" s="170"/>
+      <c r="AE77" s="170"/>
+      <c r="AF77" s="170"/>
+      <c r="AG77" s="171"/>
     </row>
     <row r="78" spans="1:33">
       <c r="A78" s="10">
@@ -19193,13 +19193,13 @@
       <c r="B78" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="C78" s="178" t="s">
+      <c r="C78" s="166" t="s">
         <v>454</v>
       </c>
-      <c r="D78" s="179"/>
-      <c r="E78" s="179"/>
-      <c r="F78" s="179"/>
-      <c r="G78" s="180"/>
+      <c r="D78" s="167"/>
+      <c r="E78" s="167"/>
+      <c r="F78" s="167"/>
+      <c r="G78" s="168"/>
       <c r="H78" s="115" t="s">
         <v>1145</v>
       </c>
@@ -19426,39 +19426,39 @@
       <c r="B81" s="11" t="s">
         <v>455</v>
       </c>
-      <c r="C81" s="172" t="s">
+      <c r="C81" s="169" t="s">
         <v>87</v>
       </c>
-      <c r="D81" s="173"/>
-      <c r="E81" s="173"/>
-      <c r="F81" s="173"/>
-      <c r="G81" s="173"/>
-      <c r="H81" s="173"/>
-      <c r="I81" s="173"/>
-      <c r="J81" s="173"/>
-      <c r="K81" s="173"/>
-      <c r="L81" s="173"/>
-      <c r="M81" s="173"/>
-      <c r="N81" s="173"/>
-      <c r="O81" s="173"/>
-      <c r="P81" s="173"/>
-      <c r="Q81" s="173"/>
-      <c r="R81" s="173"/>
-      <c r="S81" s="173"/>
-      <c r="T81" s="173"/>
-      <c r="U81" s="173"/>
-      <c r="V81" s="173"/>
-      <c r="W81" s="173"/>
-      <c r="X81" s="173"/>
-      <c r="Y81" s="173"/>
-      <c r="Z81" s="173"/>
-      <c r="AA81" s="173"/>
-      <c r="AB81" s="173"/>
-      <c r="AC81" s="173"/>
-      <c r="AD81" s="173"/>
-      <c r="AE81" s="173"/>
-      <c r="AF81" s="173"/>
-      <c r="AG81" s="174"/>
+      <c r="D81" s="170"/>
+      <c r="E81" s="170"/>
+      <c r="F81" s="170"/>
+      <c r="G81" s="170"/>
+      <c r="H81" s="170"/>
+      <c r="I81" s="170"/>
+      <c r="J81" s="170"/>
+      <c r="K81" s="170"/>
+      <c r="L81" s="170"/>
+      <c r="M81" s="170"/>
+      <c r="N81" s="170"/>
+      <c r="O81" s="170"/>
+      <c r="P81" s="170"/>
+      <c r="Q81" s="170"/>
+      <c r="R81" s="170"/>
+      <c r="S81" s="170"/>
+      <c r="T81" s="170"/>
+      <c r="U81" s="170"/>
+      <c r="V81" s="170"/>
+      <c r="W81" s="170"/>
+      <c r="X81" s="170"/>
+      <c r="Y81" s="170"/>
+      <c r="Z81" s="170"/>
+      <c r="AA81" s="170"/>
+      <c r="AB81" s="170"/>
+      <c r="AC81" s="170"/>
+      <c r="AD81" s="170"/>
+      <c r="AE81" s="170"/>
+      <c r="AF81" s="170"/>
+      <c r="AG81" s="171"/>
     </row>
     <row r="82" spans="1:33">
       <c r="A82" s="10">
@@ -19467,13 +19467,13 @@
       <c r="B82" s="11" t="s">
         <v>455</v>
       </c>
-      <c r="C82" s="178" t="s">
+      <c r="C82" s="166" t="s">
         <v>456</v>
       </c>
-      <c r="D82" s="179"/>
-      <c r="E82" s="179"/>
-      <c r="F82" s="179"/>
-      <c r="G82" s="180"/>
+      <c r="D82" s="167"/>
+      <c r="E82" s="167"/>
+      <c r="F82" s="167"/>
+      <c r="G82" s="168"/>
       <c r="H82" s="115" t="s">
         <v>1171</v>
       </c>
@@ -19700,39 +19700,39 @@
       <c r="B85" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="C85" s="172" t="s">
+      <c r="C85" s="169" t="s">
         <v>87</v>
       </c>
-      <c r="D85" s="173"/>
-      <c r="E85" s="173"/>
-      <c r="F85" s="173"/>
-      <c r="G85" s="173"/>
-      <c r="H85" s="173"/>
-      <c r="I85" s="173"/>
-      <c r="J85" s="173"/>
-      <c r="K85" s="173"/>
-      <c r="L85" s="173"/>
-      <c r="M85" s="173"/>
-      <c r="N85" s="173"/>
-      <c r="O85" s="173"/>
-      <c r="P85" s="173"/>
-      <c r="Q85" s="173"/>
-      <c r="R85" s="173"/>
-      <c r="S85" s="173"/>
-      <c r="T85" s="173"/>
-      <c r="U85" s="173"/>
-      <c r="V85" s="173"/>
-      <c r="W85" s="173"/>
-      <c r="X85" s="173"/>
-      <c r="Y85" s="173"/>
-      <c r="Z85" s="173"/>
-      <c r="AA85" s="173"/>
-      <c r="AB85" s="173"/>
-      <c r="AC85" s="173"/>
-      <c r="AD85" s="173"/>
-      <c r="AE85" s="173"/>
-      <c r="AF85" s="173"/>
-      <c r="AG85" s="174"/>
+      <c r="D85" s="170"/>
+      <c r="E85" s="170"/>
+      <c r="F85" s="170"/>
+      <c r="G85" s="170"/>
+      <c r="H85" s="170"/>
+      <c r="I85" s="170"/>
+      <c r="J85" s="170"/>
+      <c r="K85" s="170"/>
+      <c r="L85" s="170"/>
+      <c r="M85" s="170"/>
+      <c r="N85" s="170"/>
+      <c r="O85" s="170"/>
+      <c r="P85" s="170"/>
+      <c r="Q85" s="170"/>
+      <c r="R85" s="170"/>
+      <c r="S85" s="170"/>
+      <c r="T85" s="170"/>
+      <c r="U85" s="170"/>
+      <c r="V85" s="170"/>
+      <c r="W85" s="170"/>
+      <c r="X85" s="170"/>
+      <c r="Y85" s="170"/>
+      <c r="Z85" s="170"/>
+      <c r="AA85" s="170"/>
+      <c r="AB85" s="170"/>
+      <c r="AC85" s="170"/>
+      <c r="AD85" s="170"/>
+      <c r="AE85" s="170"/>
+      <c r="AF85" s="170"/>
+      <c r="AG85" s="171"/>
     </row>
     <row r="86" spans="1:33">
       <c r="A86" s="10">
@@ -19741,13 +19741,13 @@
       <c r="B86" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="C86" s="178" t="s">
+      <c r="C86" s="166" t="s">
         <v>458</v>
       </c>
-      <c r="D86" s="179"/>
-      <c r="E86" s="179"/>
-      <c r="F86" s="179"/>
-      <c r="G86" s="180"/>
+      <c r="D86" s="167"/>
+      <c r="E86" s="167"/>
+      <c r="F86" s="167"/>
+      <c r="G86" s="168"/>
       <c r="H86" s="115" t="s">
         <v>1197</v>
       </c>
@@ -19974,39 +19974,39 @@
       <c r="B89" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="C89" s="172" t="s">
+      <c r="C89" s="169" t="s">
         <v>87</v>
       </c>
-      <c r="D89" s="173"/>
-      <c r="E89" s="173"/>
-      <c r="F89" s="173"/>
-      <c r="G89" s="173"/>
-      <c r="H89" s="173"/>
-      <c r="I89" s="173"/>
-      <c r="J89" s="173"/>
-      <c r="K89" s="173"/>
-      <c r="L89" s="173"/>
-      <c r="M89" s="173"/>
-      <c r="N89" s="173"/>
-      <c r="O89" s="173"/>
-      <c r="P89" s="173"/>
-      <c r="Q89" s="173"/>
-      <c r="R89" s="173"/>
-      <c r="S89" s="173"/>
-      <c r="T89" s="173"/>
-      <c r="U89" s="173"/>
-      <c r="V89" s="173"/>
-      <c r="W89" s="173"/>
-      <c r="X89" s="173"/>
-      <c r="Y89" s="173"/>
-      <c r="Z89" s="173"/>
-      <c r="AA89" s="173"/>
-      <c r="AB89" s="173"/>
-      <c r="AC89" s="173"/>
-      <c r="AD89" s="173"/>
-      <c r="AE89" s="173"/>
-      <c r="AF89" s="173"/>
-      <c r="AG89" s="174"/>
+      <c r="D89" s="170"/>
+      <c r="E89" s="170"/>
+      <c r="F89" s="170"/>
+      <c r="G89" s="170"/>
+      <c r="H89" s="170"/>
+      <c r="I89" s="170"/>
+      <c r="J89" s="170"/>
+      <c r="K89" s="170"/>
+      <c r="L89" s="170"/>
+      <c r="M89" s="170"/>
+      <c r="N89" s="170"/>
+      <c r="O89" s="170"/>
+      <c r="P89" s="170"/>
+      <c r="Q89" s="170"/>
+      <c r="R89" s="170"/>
+      <c r="S89" s="170"/>
+      <c r="T89" s="170"/>
+      <c r="U89" s="170"/>
+      <c r="V89" s="170"/>
+      <c r="W89" s="170"/>
+      <c r="X89" s="170"/>
+      <c r="Y89" s="170"/>
+      <c r="Z89" s="170"/>
+      <c r="AA89" s="170"/>
+      <c r="AB89" s="170"/>
+      <c r="AC89" s="170"/>
+      <c r="AD89" s="170"/>
+      <c r="AE89" s="170"/>
+      <c r="AF89" s="170"/>
+      <c r="AG89" s="171"/>
     </row>
     <row r="90" spans="1:33">
       <c r="A90" s="10">
@@ -20015,13 +20015,13 @@
       <c r="B90" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="C90" s="178" t="s">
+      <c r="C90" s="166" t="s">
         <v>460</v>
       </c>
-      <c r="D90" s="179"/>
-      <c r="E90" s="179"/>
-      <c r="F90" s="179"/>
-      <c r="G90" s="180"/>
+      <c r="D90" s="167"/>
+      <c r="E90" s="167"/>
+      <c r="F90" s="167"/>
+      <c r="G90" s="168"/>
       <c r="H90" s="115" t="s">
         <v>1223</v>
       </c>
@@ -20103,14 +20103,14 @@
     </row>
     <row r="91" spans="1:33">
       <c r="A91" s="15"/>
-      <c r="B91" s="181" t="s">
+      <c r="B91" s="172" t="s">
         <v>461</v>
       </c>
-      <c r="C91" s="182"/>
-      <c r="D91" s="182"/>
-      <c r="E91" s="182"/>
-      <c r="F91" s="182"/>
-      <c r="G91" s="183"/>
+      <c r="C91" s="173"/>
+      <c r="D91" s="173"/>
+      <c r="E91" s="173"/>
+      <c r="F91" s="173"/>
+      <c r="G91" s="174"/>
       <c r="H91" s="115" t="s">
         <v>1249</v>
       </c>
@@ -20218,6 +20218,73 @@
     <row r="99" spans="1:2"/>
   </sheetData>
   <mergeCells count="83">
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C19:AG19"/>
+    <mergeCell ref="C23:AG23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C7:AG7"/>
+    <mergeCell ref="C11:AG11"/>
+    <mergeCell ref="C15:AG15"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C27:AG27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C31:AG31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C35:AG35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C39:AG39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="X45:Y45"/>
+    <mergeCell ref="Z45:AA45"/>
+    <mergeCell ref="AB45:AC45"/>
+    <mergeCell ref="AD45:AE45"/>
+    <mergeCell ref="AF45:AG45"/>
+    <mergeCell ref="C49:AG49"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="C53:AG53"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="C57:AG57"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="C61:AG61"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="C65:AG65"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="C69:AG69"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="C73:AG73"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="C77:AG77"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="C81:AG81"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="C85:AG85"/>
     <mergeCell ref="C86:G86"/>
     <mergeCell ref="C89:AG89"/>
     <mergeCell ref="C90:G90"/>
@@ -20234,73 +20301,6 @@
     <mergeCell ref="E45:E46"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="F45:F46"/>
-    <mergeCell ref="C77:AG77"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="C81:AG81"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="C85:AG85"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="C69:AG69"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="C73:AG73"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="C57:AG57"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="C61:AG61"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="C65:AG65"/>
-    <mergeCell ref="AF45:AG45"/>
-    <mergeCell ref="C49:AG49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="C53:AG53"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C39:AG39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="X45:Y45"/>
-    <mergeCell ref="Z45:AA45"/>
-    <mergeCell ref="AB45:AC45"/>
-    <mergeCell ref="AD45:AE45"/>
-    <mergeCell ref="C27:AG27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C31:AG31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C35:AG35"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C19:AG19"/>
-    <mergeCell ref="C23:AG23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C7:AG7"/>
-    <mergeCell ref="C11:AG11"/>
-    <mergeCell ref="C15:AG15"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="G3:G4"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <hyperlinks>

--- a/src/main/resources/jxls/template/预算报表.xlsx
+++ b/src/main/resources/jxls/template/预算报表.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ideaworkspace\ExcelWrite\ExcelWrite\src\main\resources\jxls\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\projects\POI相关\ExcelWrite\ExcelWrite\src\main\resources\jxls\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23835" windowHeight="12645" tabRatio="785"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23835" windowHeight="12645" tabRatio="785" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="逾期应收账款处置" sheetId="72" r:id="rId1"/>
@@ -219,7 +219,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:each(items="datas"  var="data"  lastCell="S6" select="data.DIM_ITEM==469010101")</t>
+          <t>jx:eachp(items="datas"  var="data"  lastCell="S6" select="data.DIM_ITEM==469010101" formatCells="Double:F6, Double:G6,Float:H6")</t>
         </r>
       </text>
     </comment>
@@ -6016,72 +6016,6 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
     <mruColors>
       <color rgb="FF0066FF"/>
     </mruColors>
@@ -6105,7 +6039,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -6445,8 +6379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8591,8 +8525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y48"/>
   <sheetViews>
-    <sheetView showFormulas="1" showGridLines="0" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView showFormulas="1" showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
